--- a/Test Case/Validazione/13-Tessera Portatore Impianto/CDA2_Tessera_Portatore_Impianto_KO.xlsx
+++ b/Test Case/Validazione/13-Tessera Portatore Impianto/CDA2_Tessera_Portatore_Impianto_KO.xlsx
@@ -25112,20 +25112,18 @@
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d04b37e-0497-498c-96f6-8855740e5edb">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="ff2484801094675deaec57d525336803">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5cf0afbce8d863c364fe00b75bc6dce4" ns2:_="" ns3:_="">
-    <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <xsd:import namespace="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010099D50BAF6148C0469FC2106F96A8440B" ma:contentTypeVersion="13" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="71653d7c3f93ea8865868c13b94a1d29">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d04b37e-0497-498c-96f6-8855740e5edb" xmlns:ns3="14722739-9480-433a-8c7c-4ec5d8a77ba5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16329609743a31f944830785642fcd04" ns2:_="" ns3:_="">
+    <xsd:import namespace="3d04b37e-0497-498c-96f6-8855740e5edb"/>
+    <xsd:import namespace="14722739-9480-433a-8c7c-4ec5d8a77ba5"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -25134,21 +25132,16 @@
               <xsd:all>
                 <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:UserStoryALM" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -25156,7 +25149,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1e76d14e-d0ce-457c-8343-9b55836d9ead" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="3d04b37e-0497-498c-96f6-8855740e5edb" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -25169,91 +25162,55 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="33ef62f9-2e07-484b-bd79-00aec90129fe" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="15" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="18" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="16" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="18" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="6d165d17-9b79-46c3-82b9-c927e733c429" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="23" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="UserStoryALM" ma:index="25" nillable="true" ma:displayName="UserStory ALM" ma:format="Dropdown" ma:internalName="UserStoryALM">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Choice">
-          <xsd:enumeration value="137048 - Stesura checklist RAP"/>
-          <xsd:enumeration value="137049 - Sviluppo testcase RAP"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="a56712a3-8dfd-4688-917a-22f0cf513b89" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="14722739-9480-433a-8c7c-4ec5d8a77ba5" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="19" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{c488629b-a647-4465-8bb2-a216a95770f0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="a56712a3-8dfd-4688-917a-22f0cf513b89">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="20" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -25272,7 +25229,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="21" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -25406,7 +25363,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11524099-5920-48B3-BB1F-004BF0A29DA2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{020575C9-C6C8-4091-90C2-372FFCCB4101}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
